--- a/Mainboard BOM.xlsx
+++ b/Mainboard BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="1500" windowWidth="27960" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>4.7K</t>
   </si>
   <si>
-    <t>4R</t>
-  </si>
-  <si>
     <t>R15</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>MOSFET for burn wire circuit</t>
+  </si>
+  <si>
+    <t>4.7R</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,7 +698,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -727,10 +727,10 @@
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -747,7 +747,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -767,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -787,10 +787,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -807,10 +807,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -827,10 +827,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -847,10 +847,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -861,16 +861,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -881,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -907,10 +907,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -927,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -947,7 +947,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -967,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -987,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1007,10 +1007,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -1030,7 +1030,7 @@
         <v>1206</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -1041,19 +1041,19 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1061,19 +1061,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1081,19 +1081,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1101,19 +1101,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1121,19 +1121,19 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
         <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1141,19 +1141,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1161,19 +1161,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
         <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1181,19 +1181,19 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1201,19 +1201,19 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
         <v>66</v>
       </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1221,19 +1221,19 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1241,19 +1241,19 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1273,7 +1273,7 @@
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1290,10 +1290,10 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1321,19 +1321,19 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
